--- a/e61 Projects/Fiscal sustainability/Report work/Graphs/taxpercentilesdecadeallyears.xlsx
+++ b/e61 Projects/Fiscal sustainability/Report work/Graphs/taxpercentilesdecadeallyears.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\TVHENZ\e61 Projects\Fiscal sustainability\Report work\Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C36B8F-36DC-47D5-AF52-B36E6F6D56F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58E1EA4C-7890-41EF-9ACE-AA3E07331BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="300" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$M$996</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -321,10 +321,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O996"/>
+  <dimension ref="A1:P996"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A924" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O967" sqref="O967"/>
+    <sheetView tabSelected="1" topLeftCell="A931" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P970" sqref="P970"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -39692,7 +39692,7 @@
         <v>19954</v>
       </c>
     </row>
-    <row r="961" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="961" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A961">
         <v>965</v>
       </c>
@@ -39733,7 +39733,7 @@
         <v>19955</v>
       </c>
     </row>
-    <row r="962" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="962" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A962">
         <v>966</v>
       </c>
@@ -39774,7 +39774,7 @@
         <v>19954</v>
       </c>
     </row>
-    <row r="963" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="963" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A963">
         <v>967</v>
       </c>
@@ -39815,7 +39815,7 @@
         <v>19955</v>
       </c>
     </row>
-    <row r="964" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="964" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A964">
         <v>968</v>
       </c>
@@ -39856,7 +39856,7 @@
         <v>19954</v>
       </c>
     </row>
-    <row r="965" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="965" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A965">
         <v>969</v>
       </c>
@@ -39897,7 +39897,7 @@
         <v>19955</v>
       </c>
     </row>
-    <row r="966" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="966" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A966">
         <v>970</v>
       </c>
@@ -39938,7 +39938,7 @@
         <v>19954</v>
       </c>
     </row>
-    <row r="967" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="967" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A967">
         <v>971</v>
       </c>
@@ -39982,8 +39982,12 @@
         <f>SUM(K967:K996)/SUM(K2:K996)</f>
         <v>0.46514018154894471</v>
       </c>
-    </row>
-    <row r="968" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P967" s="1">
+        <f>SUM(K2:K967)/SUM(H2:H967)</f>
+        <v>2.4809906453124985E-2</v>
+      </c>
+    </row>
+    <row r="968" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A968">
         <v>972</v>
       </c>
@@ -40024,7 +40028,7 @@
         <v>19954</v>
       </c>
     </row>
-    <row r="969" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="969" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A969">
         <v>973</v>
       </c>
@@ -40065,7 +40069,7 @@
         <v>19955</v>
       </c>
     </row>
-    <row r="970" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="970" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A970">
         <v>974</v>
       </c>
@@ -40106,7 +40110,7 @@
         <v>19954</v>
       </c>
     </row>
-    <row r="971" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="971" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A971">
         <v>975</v>
       </c>
@@ -40147,7 +40151,7 @@
         <v>19955</v>
       </c>
     </row>
-    <row r="972" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="972" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A972">
         <v>976</v>
       </c>
@@ -40188,7 +40192,7 @@
         <v>19954</v>
       </c>
     </row>
-    <row r="973" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="973" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A973">
         <v>977</v>
       </c>
@@ -40229,7 +40233,7 @@
         <v>19955</v>
       </c>
     </row>
-    <row r="974" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="974" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A974">
         <v>978</v>
       </c>
@@ -40270,7 +40274,7 @@
         <v>19954</v>
       </c>
     </row>
-    <row r="975" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="975" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A975">
         <v>979</v>
       </c>
@@ -40311,7 +40315,7 @@
         <v>19955</v>
       </c>
     </row>
-    <row r="976" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="976" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A976">
         <v>980</v>
       </c>
